--- a/BackTest/2020-01-25 BackTest WTC.xlsx
+++ b/BackTest/2020-01-25 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -454,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1189,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1259,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1294,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1329,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1761,6 +1803,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1802,6 +1845,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1843,6 +1887,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1884,6 +1929,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1925,6 +1971,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1966,6 +2013,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2007,6 +2055,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2050,6 +2099,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2093,6 +2143,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2136,6 +2187,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2177,6 +2229,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2218,6 +2271,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2259,6 +2313,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2300,6 +2355,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2341,6 +2397,9 @@
       <c r="M53" t="n">
         <v>1.003381839348079</v>
       </c>
+      <c r="N53" t="n">
+        <v>1.030239099859353</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2368,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2376,6 +2435,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2411,6 +2471,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2446,6 +2507,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2481,6 +2543,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2516,6 +2579,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2551,6 +2615,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2586,6 +2651,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2621,6 +2687,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2656,6 +2723,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2691,6 +2759,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2726,6 +2795,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2761,6 +2831,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2796,6 +2867,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2831,6 +2903,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2866,6 +2939,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2901,6 +2975,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2936,6 +3011,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2971,6 +3047,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3010,6 +3087,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3051,6 +3129,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3092,6 +3171,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3133,6 +3213,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3174,6 +3255,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3215,6 +3297,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3256,6 +3339,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3297,6 +3381,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3338,6 +3423,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3379,6 +3465,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3420,6 +3507,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3461,6 +3549,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3502,6 +3591,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3543,6 +3633,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3584,6 +3675,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3625,6 +3717,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3666,6 +3759,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3707,6 +3801,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3750,6 +3845,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3791,6 +3887,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3832,6 +3929,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3873,6 +3971,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3914,6 +4013,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3955,6 +4055,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3996,6 +4097,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4037,6 +4139,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4080,6 +4183,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4121,6 +4225,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4164,6 +4269,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4207,6 +4313,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4248,6 +4355,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4289,6 +4397,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4330,6 +4439,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4371,6 +4481,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4412,6 +4523,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4453,6 +4565,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4494,6 +4607,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4535,6 +4649,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4576,6 +4691,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4617,6 +4733,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4658,6 +4775,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4699,6 +4817,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4740,6 +4859,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4781,6 +4901,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4822,6 +4943,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4863,6 +4985,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4904,6 +5027,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4945,6 +5069,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4986,6 +5111,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5027,6 +5153,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5068,6 +5195,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5109,6 +5237,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5150,6 +5279,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5191,6 +5321,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest WTC.xlsx
+++ b/BackTest/2020-01-25 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-5414.236500000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-5413.036500000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-6352.613900000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-6622.613900000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-4089.125300000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-11316.7727</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-15343.6155</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-15345.6155</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-17764.3244</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-17189.1276</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-21640.5905</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-21224.7058</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-20349.5475</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-19973.9622</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-20706.0384</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>-19437.07529999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-24033.43109999998</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4312,19 @@
         <v>-39329.62709999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>424.9</v>
+      </c>
+      <c r="J119" t="n">
+        <v>424.9</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4351,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4388,23 @@
         <v>-39255.62709999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>425.6</v>
+      </c>
+      <c r="J121" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4431,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4470,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4509,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4548,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4587,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4626,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4665,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4704,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +4741,23 @@
         <v>-37317.56799999997</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>422</v>
+      </c>
+      <c r="J130" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4782,23 @@
         <v>-37317.56799999997</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>420.5</v>
+      </c>
+      <c r="J131" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,22 +4823,21 @@
         <v>-37287.33299999997</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="K132" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>424.9</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5176,26 +4862,23 @@
         <v>-37289.33299999997</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>421.5</v>
       </c>
       <c r="J133" t="n">
-        <v>421.5</v>
-      </c>
-      <c r="K133" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L133" t="inlineStr">
+        <v>424.9</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5220,26 +4903,23 @@
         <v>-37287.33299999997</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>420.5</v>
       </c>
       <c r="J134" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="K134" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L134" t="inlineStr">
+        <v>424.9</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5264,26 +4944,23 @@
         <v>-37710.38639999997</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="J135" t="n">
-        <v>424</v>
-      </c>
-      <c r="K135" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L135" t="inlineStr">
+        <v>424.9</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5308,26 +4985,23 @@
         <v>-39362.98319999997</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>420.6</v>
       </c>
       <c r="J136" t="n">
-        <v>420.6</v>
-      </c>
-      <c r="K136" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L136" t="inlineStr">
+        <v>424.9</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5352,26 +5026,23 @@
         <v>-38973.94309999997</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>420.5</v>
       </c>
       <c r="J137" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="K137" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L137" t="inlineStr">
+        <v>424.9</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5396,26 +5067,23 @@
         <v>-38975.14309999996</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>422.9</v>
       </c>
       <c r="J138" t="n">
-        <v>422.9</v>
-      </c>
-      <c r="K138" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L138" t="inlineStr">
+        <v>424.9</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5440,26 +5108,23 @@
         <v>-38965.14309999996</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>420.5</v>
       </c>
       <c r="J139" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="K139" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L139" t="inlineStr">
+        <v>424.9</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5484,26 +5149,23 @@
         <v>-38894.24699999997</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>422.9</v>
       </c>
       <c r="J140" t="n">
-        <v>422.9</v>
-      </c>
-      <c r="K140" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L140" t="inlineStr">
+        <v>424.9</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5528,26 +5190,23 @@
         <v>-38694.24699999997</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="J141" t="n">
-        <v>426</v>
-      </c>
-      <c r="K141" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L141" t="inlineStr">
+        <v>424.9</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5572,24 +5231,23 @@
         <v>-34388.55829999997</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L142" t="inlineStr">
+        <v>433</v>
+      </c>
+      <c r="J142" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5614,24 +5272,23 @@
         <v>-34459.45829999997</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L143" t="inlineStr">
+        <v>440.5</v>
+      </c>
+      <c r="J143" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5658,22 +5315,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5698,24 +5352,23 @@
         <v>-34910.62809999997</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L145" t="inlineStr">
+        <v>435.1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5742,22 +5395,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5784,22 +5434,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5824,24 +5471,23 @@
         <v>-34835.32819999997</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L148" t="inlineStr">
+        <v>429.4</v>
+      </c>
+      <c r="J148" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5866,24 +5512,23 @@
         <v>-38232.16249999997</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L149" t="inlineStr">
+        <v>438.8</v>
+      </c>
+      <c r="J149" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5910,22 +5555,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5952,22 +5594,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5994,22 +5633,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6036,22 +5672,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6078,24 +5711,21 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>424.9</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest WTC.xlsx
+++ b/BackTest/2020-01-25 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5414.236500000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-5414.236500000001</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5413.036500000001</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-6438.036500000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-6352.613900000001</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-6622.613900000001</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4089.125300000001</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-7425.699100000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-8386.293200000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8386.293200000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-11313.7727</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-11313.7727</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-11316.7727</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-15343.6155</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-15345.6155</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-15345.6155</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-15345.6155</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-17764.3244</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-17189.1276</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-21640.5905</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-21224.7058</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-21224.7058</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-20349.5475</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-19973.9622</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-20706.0384</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-19437.07529999999</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-24033.43109999998</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4312,14 +4312,10 @@
         <v>-39329.62709999999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>424.9</v>
-      </c>
-      <c r="J119" t="n">
-        <v>424.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4352,289 +4348,259 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>424.9</v>
-      </c>
-      <c r="K120" t="inlineStr">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>425.7</v>
+      </c>
+      <c r="C121" t="n">
+        <v>422</v>
+      </c>
+      <c r="D121" t="n">
+        <v>425.7</v>
+      </c>
+      <c r="E121" t="n">
+        <v>422</v>
+      </c>
+      <c r="F121" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-39255.62709999999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>423</v>
+      </c>
+      <c r="C122" t="n">
+        <v>423</v>
+      </c>
+      <c r="D122" t="n">
+        <v>423</v>
+      </c>
+      <c r="E122" t="n">
+        <v>423</v>
+      </c>
+      <c r="F122" t="n">
+        <v>64.94370000000001</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-39190.68339999999</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>422.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>422.4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>422.4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>422.4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-39191.88339999998</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>422</v>
+      </c>
+      <c r="C124" t="n">
+        <v>422</v>
+      </c>
+      <c r="D124" t="n">
+        <v>422</v>
+      </c>
+      <c r="E124" t="n">
+        <v>422</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-39193.08339999998</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>426.1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>426.1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>426.1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>426.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1362.3732</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-37830.71019999998</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>422</v>
+      </c>
+      <c r="J125" t="n">
+        <v>422</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>423</v>
+      </c>
+      <c r="C126" t="n">
+        <v>423</v>
+      </c>
+      <c r="D126" t="n">
+        <v>423</v>
+      </c>
+      <c r="E126" t="n">
+        <v>423</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-37831.91019999998</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>426.1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>422</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>425.7</v>
-      </c>
-      <c r="C121" t="n">
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>423</v>
+      </c>
+      <c r="C127" t="n">
+        <v>425.2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>425.2</v>
+      </c>
+      <c r="E127" t="n">
         <v>422</v>
       </c>
-      <c r="D121" t="n">
-        <v>425.7</v>
-      </c>
-      <c r="E121" t="n">
+      <c r="F127" t="n">
+        <v>712.2822</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-37119.62799999998</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>423</v>
+      </c>
+      <c r="J127" t="n">
         <v>422</v>
       </c>
-      <c r="F121" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-39255.62709999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>425.6</v>
-      </c>
-      <c r="J121" t="n">
-        <v>424.9</v>
-      </c>
-      <c r="K121" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>423</v>
-      </c>
-      <c r="C122" t="n">
-        <v>423</v>
-      </c>
-      <c r="D122" t="n">
-        <v>423</v>
-      </c>
-      <c r="E122" t="n">
-        <v>423</v>
-      </c>
-      <c r="F122" t="n">
-        <v>64.94370000000001</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-39190.68339999999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>424.9</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>422.4</v>
-      </c>
-      <c r="C123" t="n">
-        <v>422.4</v>
-      </c>
-      <c r="D123" t="n">
-        <v>422.4</v>
-      </c>
-      <c r="E123" t="n">
-        <v>422.4</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-39191.88339999998</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>424.9</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>422</v>
-      </c>
-      <c r="C124" t="n">
-        <v>422</v>
-      </c>
-      <c r="D124" t="n">
-        <v>422</v>
-      </c>
-      <c r="E124" t="n">
-        <v>422</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-39193.08339999998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>424.9</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>426.1</v>
-      </c>
-      <c r="C125" t="n">
-        <v>426.1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>426.1</v>
-      </c>
-      <c r="E125" t="n">
-        <v>426.1</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1362.3732</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-37830.71019999998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>424.9</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>423</v>
-      </c>
-      <c r="C126" t="n">
-        <v>423</v>
-      </c>
-      <c r="D126" t="n">
-        <v>423</v>
-      </c>
-      <c r="E126" t="n">
-        <v>423</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-37831.91019999998</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>424.9</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>423</v>
-      </c>
-      <c r="C127" t="n">
-        <v>425.2</v>
-      </c>
-      <c r="D127" t="n">
-        <v>425.2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>422</v>
-      </c>
-      <c r="F127" t="n">
-        <v>712.2822</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-37119.62799999998</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>424.9</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4663,11 +4629,13 @@
         <v>-37120.82799999997</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>425.2</v>
+      </c>
       <c r="J128" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4702,11 +4670,13 @@
         <v>-37120.82799999997</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>422</v>
+      </c>
       <c r="J129" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4741,13 +4711,13 @@
         <v>-37317.56799999997</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>422</v>
       </c>
       <c r="J130" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4782,13 +4752,13 @@
         <v>-37317.56799999997</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>420.5</v>
       </c>
       <c r="J131" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4823,11 +4793,13 @@
         <v>-37287.33299999997</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>420.5</v>
+      </c>
       <c r="J132" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -4862,13 +4834,13 @@
         <v>-37289.33299999997</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>421.5</v>
       </c>
       <c r="J133" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -4903,13 +4875,13 @@
         <v>-37287.33299999997</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>420.5</v>
       </c>
       <c r="J134" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -4944,13 +4916,13 @@
         <v>-37710.38639999997</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>424</v>
       </c>
       <c r="J135" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -4985,13 +4957,13 @@
         <v>-39362.98319999997</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>420.6</v>
       </c>
       <c r="J136" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5026,13 +4998,13 @@
         <v>-38973.94309999997</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>420.5</v>
       </c>
       <c r="J137" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5067,13 +5039,13 @@
         <v>-38975.14309999996</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>422.9</v>
       </c>
       <c r="J138" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5108,13 +5080,13 @@
         <v>-38965.14309999996</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>420.5</v>
       </c>
       <c r="J139" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5149,13 +5121,13 @@
         <v>-38894.24699999997</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>422.9</v>
       </c>
       <c r="J140" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5190,13 +5162,13 @@
         <v>-38694.24699999997</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>426</v>
       </c>
       <c r="J141" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5231,13 +5203,13 @@
         <v>-34388.55829999997</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>433</v>
       </c>
       <c r="J142" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5272,13 +5244,11 @@
         <v>-34459.45829999997</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>440.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5317,7 +5287,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5352,13 +5322,11 @@
         <v>-34910.62809999997</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>435.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5397,7 +5365,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5436,7 +5404,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5471,13 +5439,11 @@
         <v>-34835.32819999997</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>429.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5512,13 +5478,11 @@
         <v>-38232.16249999997</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>438.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5557,7 +5521,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5596,7 +5560,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5635,7 +5599,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5674,7 +5638,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5713,7 +5677,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>424.9</v>
+        <v>422</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5726,6 +5690,6 @@
       <c r="M154" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest WTC.xlsx
+++ b/BackTest/2020-01-25 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5414.236500000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-5414.236500000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5413.036500000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-6438.036500000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-6352.613900000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-6622.613900000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4089.125300000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-7425.699100000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-8386.293200000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8386.293200000002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-11313.7727</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-11313.7727</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-11316.7727</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-15343.6155</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-15345.6155</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-15345.6155</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-15345.6155</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-17764.3244</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-21224.7058</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-21224.7058</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-19438.27529999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -4510,14 +4510,10 @@
         <v>-37830.71019999998</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>422</v>
-      </c>
-      <c r="J125" t="n">
-        <v>422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
@@ -4547,265 +4543,221 @@
         <v>-37831.91019999998</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>426.1</v>
-      </c>
-      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>423</v>
+      </c>
+      <c r="C127" t="n">
+        <v>425.2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>425.2</v>
+      </c>
+      <c r="E127" t="n">
         <v>422</v>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="F127" t="n">
+        <v>712.2822</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-37119.62799999998</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>422</v>
+      </c>
+      <c r="C128" t="n">
+        <v>422</v>
+      </c>
+      <c r="D128" t="n">
+        <v>422</v>
+      </c>
+      <c r="E128" t="n">
+        <v>422</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-37120.82799999997</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>422</v>
+      </c>
+      <c r="C129" t="n">
+        <v>422</v>
+      </c>
+      <c r="D129" t="n">
+        <v>422</v>
+      </c>
+      <c r="E129" t="n">
+        <v>422</v>
+      </c>
+      <c r="F129" t="n">
+        <v>25.4706</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-37120.82799999997</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>196.74</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-37317.56799999997</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>32.3804</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-37317.56799999997</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="J131" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>421.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>30.235</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-37287.33299999997</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="J132" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>423</v>
-      </c>
-      <c r="C127" t="n">
-        <v>425.2</v>
-      </c>
-      <c r="D127" t="n">
-        <v>425.2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>422</v>
-      </c>
-      <c r="F127" t="n">
-        <v>712.2822</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-37119.62799999998</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>423</v>
-      </c>
-      <c r="J127" t="n">
-        <v>422</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>422</v>
-      </c>
-      <c r="C128" t="n">
-        <v>422</v>
-      </c>
-      <c r="D128" t="n">
-        <v>422</v>
-      </c>
-      <c r="E128" t="n">
-        <v>422</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-37120.82799999997</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>425.2</v>
-      </c>
-      <c r="J128" t="n">
-        <v>422</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>422</v>
-      </c>
-      <c r="C129" t="n">
-        <v>422</v>
-      </c>
-      <c r="D129" t="n">
-        <v>422</v>
-      </c>
-      <c r="E129" t="n">
-        <v>422</v>
-      </c>
-      <c r="F129" t="n">
-        <v>25.4706</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-37120.82799999997</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>422</v>
-      </c>
-      <c r="J129" t="n">
-        <v>422</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>421.5</v>
-      </c>
-      <c r="C130" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="D130" t="n">
-        <v>421.5</v>
-      </c>
-      <c r="E130" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="F130" t="n">
-        <v>196.74</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-37317.56799999997</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>422</v>
-      </c>
-      <c r="J130" t="n">
-        <v>422</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="C131" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="D131" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="E131" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="F131" t="n">
-        <v>32.3804</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-37317.56799999997</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="J131" t="n">
-        <v>422</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>421.5</v>
-      </c>
-      <c r="C132" t="n">
-        <v>421.5</v>
-      </c>
-      <c r="D132" t="n">
-        <v>421.5</v>
-      </c>
-      <c r="E132" t="n">
-        <v>421.5</v>
-      </c>
-      <c r="F132" t="n">
-        <v>30.235</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-37287.33299999997</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>422</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +4792,11 @@
         <v>421.5</v>
       </c>
       <c r="J133" t="n">
-        <v>422</v>
+        <v>420.5</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -4875,19 +4827,11 @@
         <v>-37287.33299999997</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="J134" t="n">
-        <v>422</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4916,19 +4860,11 @@
         <v>-37710.38639999997</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>424</v>
-      </c>
-      <c r="J135" t="n">
-        <v>422</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4957,19 +4893,11 @@
         <v>-39362.98319999997</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>420.6</v>
-      </c>
-      <c r="J136" t="n">
-        <v>422</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5004,13 +4932,9 @@
         <v>420.5</v>
       </c>
       <c r="J137" t="n">
-        <v>422</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>420.5</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5045,11 +4969,11 @@
         <v>422.9</v>
       </c>
       <c r="J138" t="n">
-        <v>422</v>
+        <v>420.5</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5086,11 +5010,11 @@
         <v>420.5</v>
       </c>
       <c r="J139" t="n">
-        <v>422</v>
+        <v>420.5</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5127,13 +5051,9 @@
         <v>422.9</v>
       </c>
       <c r="J140" t="n">
-        <v>422</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>422.9</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5168,11 +5088,11 @@
         <v>426</v>
       </c>
       <c r="J141" t="n">
-        <v>422</v>
+        <v>422.9</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L141" t="n">
@@ -5203,17 +5123,15 @@
         <v>-34388.55829999997</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>422</v>
+        <v>422.9</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L142" t="n">
@@ -5247,14 +5165,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>422</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5286,14 +5198,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>422</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5325,14 +5231,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>422</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5364,14 +5264,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>422</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5403,14 +5297,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>422</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5442,14 +5330,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>422</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5481,14 +5363,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>422</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5517,17 +5393,11 @@
         <v>-38060.96249999997</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>422</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5556,17 +5426,11 @@
         <v>-38143.66239999997</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>422</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5598,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>422</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5637,14 +5495,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>422</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5673,23 +5525,17 @@
         <v>-36471.95709999997</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>422</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
       <c r="M154" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest WTC.xlsx
+++ b/BackTest/2020-01-25 BackTest WTC.xlsx
@@ -451,7 +451,7 @@
         <v>-5414.236500000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-5414.236500000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5413.036500000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-6438.036500000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-6352.613900000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-6622.613900000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4089.125300000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-11313.7727</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-19438.27529999999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -4708,14 +4708,10 @@
         <v>-37317.56799999997</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="J131" t="n">
-        <v>420.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
@@ -4745,159 +4741,159 @@
         <v>-37287.33299999997</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
         <v>420.5</v>
       </c>
-      <c r="J132" t="n">
+      <c r="C133" t="n">
         <v>420.5</v>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="D133" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-37289.33299999997</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>424</v>
+      </c>
+      <c r="C134" t="n">
+        <v>424</v>
+      </c>
+      <c r="D134" t="n">
+        <v>424</v>
+      </c>
+      <c r="E134" t="n">
+        <v>424</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-37287.33299999997</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="J134" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>422</v>
+      </c>
+      <c r="C135" t="n">
+        <v>420.6</v>
+      </c>
+      <c r="D135" t="n">
+        <v>422</v>
+      </c>
+      <c r="E135" t="n">
+        <v>420.6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>423.0534</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-37710.38639999997</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
         <v>420.5</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C136" t="n">
         <v>420.5</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D136" t="n">
         <v>420.5</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E136" t="n">
         <v>420.5</v>
       </c>
-      <c r="F133" t="n">
-        <v>2</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-37289.33299999997</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>421.5</v>
-      </c>
-      <c r="J133" t="n">
+      <c r="F136" t="n">
+        <v>1652.5968</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-39362.98319999997</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
         <v>420.5</v>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>424</v>
-      </c>
-      <c r="C134" t="n">
-        <v>424</v>
-      </c>
-      <c r="D134" t="n">
-        <v>424</v>
-      </c>
-      <c r="E134" t="n">
-        <v>424</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-37287.33299999997</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>422</v>
-      </c>
-      <c r="C135" t="n">
-        <v>420.6</v>
-      </c>
-      <c r="D135" t="n">
-        <v>422</v>
-      </c>
-      <c r="E135" t="n">
-        <v>420.6</v>
-      </c>
-      <c r="F135" t="n">
-        <v>423.0534</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-37710.38639999997</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="C136" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="D136" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="E136" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1652.5968</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-39362.98319999997</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5123,9 +5119,11 @@
         <v>-34388.55829999997</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>433</v>
+      </c>
       <c r="J142" t="n">
         <v>422.9</v>
       </c>
@@ -5393,7 +5391,7 @@
         <v>-38060.96249999997</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5426,7 +5424,7 @@
         <v>-38143.66239999997</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5525,7 +5523,7 @@
         <v>-36471.95709999997</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>

--- a/BackTest/2020-01-25 BackTest WTC.xlsx
+++ b/BackTest/2020-01-25 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>149</v>
       </c>
       <c r="G2" t="n">
-        <v>-5414.236500000001</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>107.9804</v>
       </c>
       <c r="G3" t="n">
-        <v>-5414.236500000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1.2</v>
       </c>
       <c r="G4" t="n">
-        <v>-5413.036500000001</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1025</v>
       </c>
       <c r="G5" t="n">
-        <v>-6438.036500000001</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>85.4226</v>
       </c>
       <c r="G6" t="n">
-        <v>-6352.613900000001</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>270</v>
       </c>
       <c r="G7" t="n">
-        <v>-6622.613900000001</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2533.4886</v>
       </c>
       <c r="G8" t="n">
-        <v>-4089.125300000001</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3336.5738</v>
       </c>
       <c r="G9" t="n">
-        <v>-7425.699100000002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>960.5941</v>
       </c>
       <c r="G10" t="n">
-        <v>-8386.293200000002</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>103.0613</v>
       </c>
       <c r="G11" t="n">
-        <v>-8386.293200000002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>443.233</v>
       </c>
       <c r="G12" t="n">
-        <v>-8829.526200000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>-8829.526200000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1400</v>
       </c>
       <c r="G14" t="n">
-        <v>-8829.526200000002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1400</v>
       </c>
       <c r="G15" t="n">
-        <v>-8829.526200000002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>2484.2465</v>
       </c>
       <c r="G16" t="n">
-        <v>-11313.7727</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1905.6306</v>
       </c>
       <c r="G17" t="n">
-        <v>-11313.7727</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>-11316.7727</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>4026.8428</v>
       </c>
       <c r="G19" t="n">
-        <v>-15343.6155</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>-15345.6155</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2894.5589</v>
       </c>
       <c r="G21" t="n">
-        <v>-15345.6155</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2000</v>
       </c>
       <c r="G22" t="n">
-        <v>-15345.6155</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2418.7089</v>
       </c>
       <c r="G23" t="n">
-        <v>-17764.3244</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>575.1968000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-17189.1276</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1400</v>
       </c>
       <c r="G25" t="n">
-        <v>-18589.1276</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1085</v>
       </c>
       <c r="G26" t="n">
-        <v>-18589.1276</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3053.4629</v>
       </c>
       <c r="G27" t="n">
-        <v>-21642.5905</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>-21640.5905</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>415.8847</v>
       </c>
       <c r="G29" t="n">
-        <v>-21224.7058</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>75.4126</v>
       </c>
       <c r="G30" t="n">
-        <v>-21224.7058</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>25.2675</v>
       </c>
       <c r="G31" t="n">
-        <v>-21224.7058</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>875.1583000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>-20349.5475</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>369.8507</v>
       </c>
       <c r="G33" t="n">
-        <v>-20349.5475</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>971.2864</v>
       </c>
       <c r="G34" t="n">
-        <v>-19378.2611</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>846.1069</v>
       </c>
       <c r="G35" t="n">
-        <v>-19378.2611</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>539.0347</v>
       </c>
       <c r="G36" t="n">
-        <v>-19378.2611</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>681.303</v>
       </c>
       <c r="G37" t="n">
-        <v>-18696.9581</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1353.4912</v>
       </c>
       <c r="G38" t="n">
-        <v>-17343.4669</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>-17443.4669</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>465</v>
       </c>
       <c r="G40" t="n">
-        <v>-17908.4669</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>50</v>
       </c>
       <c r="G41" t="n">
-        <v>-17858.4669</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1800</v>
       </c>
       <c r="G42" t="n">
-        <v>-19658.4669</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>315.4953</v>
       </c>
       <c r="G43" t="n">
-        <v>-19973.9622</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1588.5494</v>
       </c>
       <c r="G44" t="n">
-        <v>-18385.4128</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>-18385.4128</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1825.6256</v>
       </c>
       <c r="G46" t="n">
-        <v>-20211.0384</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>495</v>
       </c>
       <c r="G47" t="n">
-        <v>-20706.0384</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>4870</v>
       </c>
       <c r="G48" t="n">
-        <v>-20706.0384</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1400</v>
       </c>
       <c r="G49" t="n">
-        <v>-20706.0384</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>-21706.0384</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>757.1797</v>
       </c>
       <c r="G51" t="n">
-        <v>-20948.8587</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>860</v>
       </c>
       <c r="G52" t="n">
-        <v>-21808.8587</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>826.375</v>
       </c>
       <c r="G53" t="n">
-        <v>-20982.4837</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>282.1316</v>
       </c>
       <c r="G54" t="n">
-        <v>-21264.6153</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>97.3584</v>
       </c>
       <c r="G55" t="n">
-        <v>-21264.6153</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>-21274.6153</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2200</v>
       </c>
       <c r="G57" t="n">
-        <v>-23474.6153</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1.2</v>
       </c>
       <c r="G58" t="n">
-        <v>-23473.4153</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1.2</v>
       </c>
       <c r="G59" t="n">
-        <v>-23472.2153</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1.2</v>
       </c>
       <c r="G60" t="n">
-        <v>-23471.0153</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1.17</v>
       </c>
       <c r="G61" t="n">
-        <v>-23472.18529999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1.2</v>
       </c>
       <c r="G62" t="n">
-        <v>-23470.98529999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1.2</v>
       </c>
       <c r="G63" t="n">
-        <v>-23469.78529999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>19.6797</v>
       </c>
       <c r="G64" t="n">
-        <v>-23489.46499999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>145.2244</v>
       </c>
       <c r="G65" t="n">
-        <v>-23344.24059999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>501.5368</v>
       </c>
       <c r="G66" t="n">
-        <v>-23845.7774</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1.2</v>
       </c>
       <c r="G67" t="n">
-        <v>-23844.57739999999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1.2</v>
       </c>
       <c r="G68" t="n">
-        <v>-23843.37739999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1.2</v>
       </c>
       <c r="G69" t="n">
-        <v>-23842.17739999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>4604.5021</v>
       </c>
       <c r="G70" t="n">
-        <v>-19237.6753</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1445</v>
       </c>
       <c r="G71" t="n">
-        <v>-17792.6753</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>192.4277</v>
       </c>
       <c r="G72" t="n">
-        <v>-17792.6753</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1738.838030324074</v>
       </c>
       <c r="G73" t="n">
-        <v>-17792.6753</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>479</v>
       </c>
       <c r="G74" t="n">
-        <v>-18271.6753</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1165</v>
       </c>
       <c r="G75" t="n">
-        <v>-19436.6753</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1.2</v>
       </c>
       <c r="G76" t="n">
-        <v>-19435.47529999999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1.2</v>
       </c>
       <c r="G77" t="n">
-        <v>-19434.27529999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1.2</v>
       </c>
       <c r="G78" t="n">
-        <v>-19433.07529999999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>2.4</v>
       </c>
       <c r="G79" t="n">
-        <v>-19430.67529999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>1.2</v>
       </c>
       <c r="G80" t="n">
-        <v>-19429.47529999999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1.2</v>
       </c>
       <c r="G81" t="n">
-        <v>-19428.27529999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>-19438.27529999999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1.2</v>
       </c>
       <c r="G83" t="n">
-        <v>-19437.07529999999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>2</v>
       </c>
       <c r="G84" t="n">
-        <v>-19439.07529999999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>-19441.07529999999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>4554.5021</v>
       </c>
       <c r="G86" t="n">
-        <v>-23995.57739999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>1.2</v>
       </c>
       <c r="G87" t="n">
-        <v>-23994.37739999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>1.17</v>
       </c>
       <c r="G88" t="n">
-        <v>-23995.54739999998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1.17</v>
       </c>
       <c r="G89" t="n">
-        <v>-23996.71739999998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>1.2</v>
       </c>
       <c r="G90" t="n">
-        <v>-23995.51739999998</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>37.9137</v>
       </c>
       <c r="G91" t="n">
-        <v>-24033.43109999998</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>1400</v>
       </c>
       <c r="G92" t="n">
-        <v>-24033.43109999998</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>660</v>
       </c>
       <c r="G93" t="n">
-        <v>-24033.43109999998</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>812.5827</v>
       </c>
       <c r="G94" t="n">
-        <v>-24033.43109999998</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>50</v>
       </c>
       <c r="G95" t="n">
-        <v>-24083.43109999998</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>50</v>
       </c>
       <c r="G96" t="n">
-        <v>-24083.43109999998</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>1377.4389</v>
       </c>
       <c r="G97" t="n">
-        <v>-25460.86999999998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>-25458.86999999998</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>1.2</v>
       </c>
       <c r="G99" t="n">
-        <v>-25460.06999999999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>36.89</v>
       </c>
       <c r="G100" t="n">
-        <v>-25423.17999999999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>12</v>
       </c>
       <c r="G101" t="n">
-        <v>-25435.17999999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>1.2</v>
       </c>
       <c r="G102" t="n">
-        <v>-25436.37999999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>124.2</v>
       </c>
       <c r="G103" t="n">
-        <v>-25560.57999999999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>12</v>
       </c>
       <c r="G104" t="n">
-        <v>-25548.57999999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>45.9778</v>
       </c>
       <c r="G105" t="n">
-        <v>-25502.60219999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>1.17</v>
       </c>
       <c r="G106" t="n">
-        <v>-25503.77219999998</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>29.4988</v>
       </c>
       <c r="G107" t="n">
-        <v>-25533.27099999999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>150</v>
       </c>
       <c r="G108" t="n">
-        <v>-25533.27099999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>61.3947</v>
       </c>
       <c r="G109" t="n">
-        <v>-25533.27099999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>4930</v>
       </c>
       <c r="G110" t="n">
-        <v>-30463.27099999999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>6165.3006</v>
       </c>
       <c r="G111" t="n">
-        <v>-36628.57159999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>548.7837</v>
       </c>
       <c r="G112" t="n">
-        <v>-36628.57159999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>13.13</v>
       </c>
       <c r="G113" t="n">
-        <v>-36615.44159999999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>712.9855</v>
       </c>
       <c r="G114" t="n">
-        <v>-37328.42709999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>2000</v>
       </c>
       <c r="G115" t="n">
-        <v>-37328.42709999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>1900</v>
       </c>
       <c r="G116" t="n">
-        <v>-37328.42709999999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>121.6556</v>
       </c>
       <c r="G117" t="n">
-        <v>-37328.42709999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>2000</v>
       </c>
       <c r="G118" t="n">
-        <v>-39328.42709999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>1.2</v>
       </c>
       <c r="G119" t="n">
-        <v>-39329.62709999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>125.2</v>
       </c>
       <c r="G120" t="n">
-        <v>-39204.42709999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>51.2</v>
       </c>
       <c r="G121" t="n">
-        <v>-39255.62709999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>64.94370000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>-39190.68339999999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>1.2</v>
       </c>
       <c r="G123" t="n">
-        <v>-39191.88339999998</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>1.2</v>
       </c>
       <c r="G124" t="n">
-        <v>-39193.08339999998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>1362.3732</v>
       </c>
       <c r="G125" t="n">
-        <v>-37830.71019999998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>1.2</v>
       </c>
       <c r="G126" t="n">
-        <v>-37831.91019999998</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>712.2822</v>
       </c>
       <c r="G127" t="n">
-        <v>-37119.62799999998</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>1.2</v>
       </c>
       <c r="G128" t="n">
-        <v>-37120.82799999997</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>25.4706</v>
       </c>
       <c r="G129" t="n">
-        <v>-37120.82799999997</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>196.74</v>
       </c>
       <c r="G130" t="n">
-        <v>-37317.56799999997</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>32.3804</v>
       </c>
       <c r="G131" t="n">
-        <v>-37317.56799999997</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>30.235</v>
       </c>
       <c r="G132" t="n">
-        <v>-37287.33299999997</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>2</v>
       </c>
       <c r="G133" t="n">
-        <v>-37289.33299999997</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,22 +4403,15 @@
         <v>2</v>
       </c>
       <c r="G134" t="n">
-        <v>-37287.33299999997</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="J134" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4841,301 +4433,263 @@
         <v>423.0534</v>
       </c>
       <c r="G135" t="n">
-        <v>-37710.38639999997</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
         <v>420.5</v>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="C136" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1652.5968</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>422.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>422.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>422.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>422.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>389.0401</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="I137" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>422.9</v>
+      </c>
+      <c r="I138" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="J138" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>422.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>422.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>422.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>422.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
         <v>420.5</v>
       </c>
-      <c r="C136" t="n">
+      <c r="I139" t="n">
         <v>420.5</v>
       </c>
-      <c r="D136" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="E136" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1652.5968</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-39362.98319999997</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>426</v>
+      </c>
+      <c r="C140" t="n">
+        <v>426</v>
+      </c>
+      <c r="D140" t="n">
+        <v>426</v>
+      </c>
+      <c r="E140" t="n">
+        <v>426</v>
+      </c>
+      <c r="F140" t="n">
+        <v>70.8961</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
         <v>422.9</v>
       </c>
-      <c r="C137" t="n">
+      <c r="I140" t="n">
         <v>422.9</v>
       </c>
-      <c r="D137" t="n">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>432</v>
+      </c>
+      <c r="C141" t="n">
+        <v>433</v>
+      </c>
+      <c r="D141" t="n">
+        <v>433</v>
+      </c>
+      <c r="E141" t="n">
+        <v>432</v>
+      </c>
+      <c r="F141" t="n">
+        <v>200</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>426</v>
+      </c>
+      <c r="I141" t="n">
         <v>422.9</v>
       </c>
-      <c r="E137" t="n">
-        <v>422.9</v>
-      </c>
-      <c r="F137" t="n">
-        <v>389.0401</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-38973.94309999997</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="J137" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="C138" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="D138" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="E138" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-38975.14309999996</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>422.9</v>
-      </c>
-      <c r="J138" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>434.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>440.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>440.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>434.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4305.6887</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
         <v>422.9</v>
       </c>
-      <c r="C139" t="n">
-        <v>422.9</v>
-      </c>
-      <c r="D139" t="n">
-        <v>422.9</v>
-      </c>
-      <c r="E139" t="n">
-        <v>422.9</v>
-      </c>
-      <c r="F139" t="n">
-        <v>10</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-38965.14309999996</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="J139" t="n">
-        <v>420.5</v>
-      </c>
-      <c r="K139" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>426</v>
-      </c>
-      <c r="C140" t="n">
-        <v>426</v>
-      </c>
-      <c r="D140" t="n">
-        <v>426</v>
-      </c>
-      <c r="E140" t="n">
-        <v>426</v>
-      </c>
-      <c r="F140" t="n">
-        <v>70.8961</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-38894.24699999997</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>422.9</v>
-      </c>
-      <c r="J140" t="n">
-        <v>422.9</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>432</v>
-      </c>
-      <c r="C141" t="n">
-        <v>433</v>
-      </c>
-      <c r="D141" t="n">
-        <v>433</v>
-      </c>
-      <c r="E141" t="n">
-        <v>432</v>
-      </c>
-      <c r="F141" t="n">
-        <v>200</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-38694.24699999997</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>426</v>
-      </c>
-      <c r="J141" t="n">
-        <v>422.9</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>434.9</v>
-      </c>
-      <c r="C142" t="n">
-        <v>440.5</v>
-      </c>
-      <c r="D142" t="n">
-        <v>440.5</v>
-      </c>
-      <c r="E142" t="n">
-        <v>434.9</v>
-      </c>
-      <c r="F142" t="n">
-        <v>4305.6887</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-34388.55829999997</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>433</v>
-      </c>
-      <c r="J142" t="n">
-        <v>422.9</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5157,18 +4711,15 @@
         <v>70.90000000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>-34459.45829999997</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5190,18 +4741,15 @@
         <v>449.9698</v>
       </c>
       <c r="G144" t="n">
-        <v>-34909.42809999997</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5223,18 +4771,15 @@
         <v>1.2</v>
       </c>
       <c r="G145" t="n">
-        <v>-34910.62809999997</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5256,18 +4801,15 @@
         <v>2.4</v>
       </c>
       <c r="G146" t="n">
-        <v>-34913.02809999997</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5289,18 +4831,15 @@
         <v>75.6999</v>
       </c>
       <c r="G147" t="n">
-        <v>-34837.32819999997</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5322,18 +4861,15 @@
         <v>2</v>
       </c>
       <c r="G148" t="n">
-        <v>-34835.32819999997</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5355,18 +4891,15 @@
         <v>3396.8343</v>
       </c>
       <c r="G149" t="n">
-        <v>-38232.16249999997</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5388,18 +4921,15 @@
         <v>171.2</v>
       </c>
       <c r="G150" t="n">
-        <v>-38060.96249999997</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5421,18 +4951,15 @@
         <v>82.6999</v>
       </c>
       <c r="G151" t="n">
-        <v>-38143.66239999997</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5454,18 +4981,15 @@
         <v>105.2914</v>
       </c>
       <c r="G152" t="n">
-        <v>-38248.95379999997</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5487,18 +5011,15 @@
         <v>2130.501</v>
       </c>
       <c r="G153" t="n">
-        <v>-36118.45279999997</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5520,18 +5041,15 @@
         <v>353.5043</v>
       </c>
       <c r="G154" t="n">
-        <v>-36471.95709999997</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
